--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296494.473410519</v>
+        <v>1329072.687925718</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584677</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.894394903258235</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E8" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>232.0095242284297</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>266.415335073865</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1466,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0.2713807262490945</v>
       </c>
       <c r="U12" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.10759504812228</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>110.0704105007599</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>182.9732335581771</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -1783,10 +1785,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>122.1971184037038</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9316113046338</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.8453877183258</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.56911010419951</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>62.56525216889505</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -2135,13 +2137,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>107.6711182064217</v>
+        <v>23.12450723068069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>6.45683482408856</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2217,7 +2219,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>29.34281600071414</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>54.21297465918772</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352.0248783365589</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>280.0741154363928</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2409,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>53.92880121529013</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.107732635532419</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1860399441546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>346.092157066817</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>80.35492349970104</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2643,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>9.136888730010115</v>
       </c>
     </row>
     <row r="28">
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.21297465918767</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>263.4098305552188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.784519550422383</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>349.9311566792248</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2810,7 +2812,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,19 +2876,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2925,7 +2927,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>211.6216064629557</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>112.3657558994376</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>16.60419956430074</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.21553521035874</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -3086,13 +3088,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>296.0843437627839</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>1.697369306513564</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>208.1860399441546</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>21.65605051587607</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>192.0676942294398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3360,10 +3362,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>82.12649100043194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>15.69638162143981</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>80.38342537800055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.54798812758653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>34.93907793657518</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>121.393646812485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>149.3187780068791</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>184.1341378127513</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>93.90727742760606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.97307036798112</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121528878</v>
+        <v>53.92880121529058</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>123.5544594002519</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.18466222531511</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>158.4113974668743</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.77996586827872</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>24.11316191150797</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>6.45683482408723</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749139</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.7943575370065</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>114.7943575370066</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>223.7040404982626</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>120.3292431919614</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1991.981166812102</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="C11" t="n">
-        <v>1991.981166812102</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>726.987300295762</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>316.0013955061544</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5045,10 +5047,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W11" t="n">
-        <v>1991.981166812102</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X11" t="n">
-        <v>1991.981166812102</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1991.981166812102</v>
+        <v>1112.775552894006</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5121,22 +5123,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5145,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.207124136247</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="E13" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5239,10 +5241,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>379.7790225382929</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.9864433947628</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>897.3131892316399</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="C14" t="n">
-        <v>897.3131892316399</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="D14" t="n">
-        <v>897.3131892316399</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E14" t="n">
-        <v>511.5249366333956</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F14" t="n">
-        <v>100.5390318437881</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G14" t="n">
-        <v>100.5390318437881</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>100.5390318437881</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.584829884744</v>
       </c>
       <c r="V14" t="n">
-        <v>2013.686934738646</v>
+        <v>1682.521942541174</v>
       </c>
       <c r="W14" t="n">
-        <v>1660.918279468531</v>
+        <v>1329.753287271059</v>
       </c>
       <c r="X14" t="n">
-        <v>1287.452521207452</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="Y14" t="n">
-        <v>897.3131892316399</v>
+        <v>956.2875290099796</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D15" t="n">
         <v>665.4917812623953</v>
@@ -5379,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1738.708382212894</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1503.556273981152</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1249.31891725295</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1041.467417047417</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>833.7071182824634</v>
       </c>
     </row>
     <row r="16">
@@ -5419,19 +5421,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>170.3264291726583</v>
       </c>
       <c r="F17" t="n">
         <v>46.89499644164432</v>
@@ -5516,10 +5518,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2134.717891471475</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1880.931469356342</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1549.868582012772</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.099926742658</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>823.6341684815778</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>433.4948365057661</v>
+        <v>556.1146817709025</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5637,7 +5639,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.95470361760343</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C19" t="n">
-        <v>95.95470361760343</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5694,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1371.839859437666</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C20" t="n">
-        <v>1371.839859437666</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D20" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5783,19 +5785,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1758.439699501788</v>
+        <v>1843.840316649001</v>
       </c>
       <c r="V20" t="n">
-        <v>1758.439699501788</v>
+        <v>1843.840316649001</v>
       </c>
       <c r="W20" t="n">
-        <v>1758.439699501788</v>
+        <v>1491.071661378887</v>
       </c>
       <c r="X20" t="n">
-        <v>1758.439699501788</v>
+        <v>1491.071661378887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1758.439699501788</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>682.5765037404603</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>508.1234744593334</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>359.1890647980821</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>199.9516097926266</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>53.41705181951156</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,49 +5834,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161156</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>1983.973569036802</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U21" t="n">
-        <v>1755.793104690959</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V21" t="n">
-        <v>1520.640996459217</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W21" t="n">
-        <v>1266.403639731015</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>1058.552139525482</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>850.7918407605284</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>336.3121664786049</v>
+        <v>2301.282966022528</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>2011.865795985567</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1989.169136893773</v>
+        <v>1552.713549583553</v>
       </c>
       <c r="C23" t="n">
-        <v>1620.206619953362</v>
+        <v>1183.751032643141</v>
       </c>
       <c r="D23" t="n">
-        <v>1261.940921346611</v>
+        <v>825.4853340363909</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>825.4853340363909</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>825.4853340363909</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -5990,7 +5992,7 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082217</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082217</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082217</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082217</v>
+        <v>1939.313389647675</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,49 +6071,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1952.812428015457</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>48.01391829571747</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>2344.749822082216</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y25" t="n">
-        <v>2134.460892845696</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>816.1465998380024</v>
+        <v>1310.441992089288</v>
       </c>
       <c r="C26" t="n">
-        <v>816.1465998380024</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D26" t="n">
-        <v>457.8809012312519</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8809012312519</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U26" t="n">
-        <v>2263.583232688579</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V26" t="n">
-        <v>1932.520345345008</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W26" t="n">
-        <v>1579.751690074894</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X26" t="n">
-        <v>1206.285931813814</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y26" t="n">
-        <v>816.1465998380024</v>
+        <v>1697.04183215341</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076317</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161156</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6348,7 +6350,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F28" t="n">
         <v>46.89499644164432</v>
@@ -6385,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200978</v>
@@ -6394,7 +6396,7 @@
         <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O28" t="n">
         <v>545.2763053496715</v>
@@ -6406,28 +6408,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>553.0079929724843</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>336.3121664786049</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="V28" t="n">
-        <v>336.3121664786049</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="W28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>341.6980375219478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1314.319769475559</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="C29" t="n">
-        <v>1314.319769475559</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D29" t="n">
-        <v>1314.319769475559</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E29" t="n">
-        <v>1314.319769475559</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F29" t="n">
         <v>960.8539546480588</v>
@@ -6461,13 +6463,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6476,7 +6478,7 @@
         <v>1610.799342072557</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733487</v>
@@ -6488,25 +6490,25 @@
         <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220193</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>1687.785527736638</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V29" t="n">
-        <v>1687.785527736638</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W29" t="n">
-        <v>1687.785527736638</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X29" t="n">
-        <v>1314.319769475559</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.319769475559</v>
+        <v>2124.767062713795</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>636.554030853528</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>462.101001572401</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>313.1665919111497</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E30" t="n">
-        <v>153.9291369056942</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F30" t="n">
-        <v>153.9291369056942</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6540,22 +6542,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O30" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6573,19 +6575,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1709.770631804027</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1474.618523572284</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1220.381166844083</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1012.52966663855</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>804.7693678735961</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>459.8554798539171</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>459.8554798539171</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>2090.06533387633</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>1800.648163839369</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>500.5777290503519</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="C32" t="n">
-        <v>500.5777290503519</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="D32" t="n">
-        <v>500.5777290503519</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E32" t="n">
-        <v>114.7894764521077</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F32" t="n">
-        <v>114.7894764521077</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G32" t="n">
-        <v>114.7894764521077</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>114.7894764521077</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6713,7 +6715,7 @@
         <v>1610.799342072557</v>
       </c>
       <c r="O32" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P32" t="n">
         <v>2224.886645733487</v>
@@ -6734,16 +6736,16 @@
         <v>1613.411982645668</v>
       </c>
       <c r="V32" t="n">
-        <v>1613.411982645668</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.643327375554</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X32" t="n">
-        <v>887.1775691144737</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="Y32" t="n">
-        <v>887.1775691144737</v>
+        <v>630.5053453221001</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6777,16 +6779,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076317</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161156</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6807,22 +6809,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.7261503050039</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C34" t="n">
-        <v>197.0116358539801</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.7261503050039</v>
+        <v>2134.460892845696</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1228.376076575211</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C35" t="n">
-        <v>1228.376076575211</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D35" t="n">
-        <v>1228.376076575211</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E35" t="n">
-        <v>1228.376076575211</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F35" t="n">
-        <v>817.3901717856031</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>399.118404268488</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>68.76979494252924</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J35" t="n">
         <v>137.0453218915536</v>
@@ -6941,7 +6943,7 @@
         <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6956,31 +6958,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q35" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2076.368505042317</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>2076.368505042317</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1745.305617698746</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>1745.305617698746</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.515408551022</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="Y35" t="n">
-        <v>1228.376076575211</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>814.129334229901</v>
+        <v>790.3481019751844</v>
       </c>
       <c r="C36" t="n">
-        <v>639.676304948774</v>
+        <v>790.3481019751844</v>
       </c>
       <c r="D36" t="n">
-        <v>490.7418952875228</v>
+        <v>641.4136923139331</v>
       </c>
       <c r="E36" t="n">
-        <v>331.5044402820673</v>
+        <v>482.1762373084776</v>
       </c>
       <c r="F36" t="n">
-        <v>184.9698823089523</v>
+        <v>335.6416793353626</v>
       </c>
       <c r="G36" t="n">
-        <v>46.89499644164432</v>
+        <v>197.5667934680546</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K36" t="n">
         <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q36" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X36" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y36" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060707</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060707</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>276.003469193735</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>128.0903756113419</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>128.0903756113419</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>128.0903756113419</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>128.0903756113419</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.4672162670298</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="T37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="U37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="V37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="W37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="X37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.4948365057661</v>
+        <v>1407.131857353399</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7281,22 +7283,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T39" t="n">
-        <v>2290.276285501115</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F40" t="n">
         <v>1783.87624508755</v>
@@ -7366,16 +7368,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>2301.282966022528</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>2011.865795985567</v>
+        <v>2158.755743483478</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>510.7133491675167</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C41" t="n">
-        <v>141.750832227105</v>
+        <v>1199.048133101872</v>
       </c>
       <c r="D41" t="n">
-        <v>141.750832227105</v>
+        <v>840.7824344951212</v>
       </c>
       <c r="E41" t="n">
-        <v>46.8949964416443</v>
+        <v>454.9941818968769</v>
       </c>
       <c r="F41" t="n">
-        <v>46.8949964416443</v>
+        <v>454.9941818968769</v>
       </c>
       <c r="G41" t="n">
-        <v>46.8949964416443</v>
+        <v>454.9941818968769</v>
       </c>
       <c r="H41" t="n">
-        <v>46.8949964416443</v>
+        <v>124.6455725709182</v>
       </c>
       <c r="I41" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915516</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275658</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244532</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376117</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
-        <v>1610.799342072555</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O41" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.886645733485</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q41" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V41" t="n">
-        <v>2013.686934738644</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W41" t="n">
-        <v>1660.91827946853</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X41" t="n">
-        <v>1287.45252120745</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y41" t="n">
-        <v>897.3131892316385</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="42">
@@ -7485,37 +7487,37 @@
         <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J42" t="n">
-        <v>46.8949964416443</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810002</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q42" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T42" t="n">
         <v>2290.276285501115</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="C43" t="n">
-        <v>318.5874281822333</v>
+        <v>438.8323905084036</v>
       </c>
       <c r="D43" t="n">
-        <v>318.5874281822333</v>
+        <v>438.8323905084036</v>
       </c>
       <c r="E43" t="n">
-        <v>193.7849439395547</v>
+        <v>438.8323905084036</v>
       </c>
       <c r="F43" t="n">
-        <v>46.8949964416443</v>
+        <v>438.8323905084036</v>
       </c>
       <c r="G43" t="n">
-        <v>46.8949964416443</v>
+        <v>269.694450254913</v>
       </c>
       <c r="H43" t="n">
-        <v>46.8949964416443</v>
+        <v>110.7178875783263</v>
       </c>
       <c r="I43" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J43" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702976</v>
+        <v>87.4672162670298</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="U43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="V43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="W43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="X43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1738.194744696968</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="C44" t="n">
-        <v>1369.232227756557</v>
+        <v>859.4135596347994</v>
       </c>
       <c r="D44" t="n">
-        <v>1010.966529149806</v>
+        <v>501.1478610280489</v>
       </c>
       <c r="E44" t="n">
-        <v>625.1782765515618</v>
+        <v>115.3596084298047</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>115.3596084298047</v>
       </c>
       <c r="G44" t="n">
-        <v>46.8949964416443</v>
+        <v>115.3596084298047</v>
       </c>
       <c r="H44" t="n">
-        <v>46.8949964416443</v>
+        <v>115.3596084298047</v>
       </c>
       <c r="I44" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244554</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7667,31 +7669,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q44" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U44" t="n">
-        <v>2090.963399967082</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V44" t="n">
-        <v>2090.963399967082</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W44" t="n">
-        <v>1738.194744696968</v>
+        <v>1991.981166812103</v>
       </c>
       <c r="X44" t="n">
-        <v>1738.194744696968</v>
+        <v>1618.515408551023</v>
       </c>
       <c r="Y44" t="n">
-        <v>1738.194744696968</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>682.576503740459</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="C45" t="n">
-        <v>508.123474459332</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="D45" t="n">
-        <v>359.1890647980807</v>
+        <v>597.7760357515729</v>
       </c>
       <c r="E45" t="n">
-        <v>199.9516097926252</v>
+        <v>438.5385807461173</v>
       </c>
       <c r="F45" t="n">
-        <v>53.41705181951019</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>53.41705181951019</v>
+        <v>153.9291369056943</v>
       </c>
       <c r="H45" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I45" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J45" t="n">
-        <v>46.8949964416443</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076306</v>
+        <v>336.0641406922998</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161145</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832889</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671462</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.884810267789</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540002</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q45" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082215</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.51626698277</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T45" t="n">
-        <v>1983.973569036801</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U45" t="n">
-        <v>1755.793104690958</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V45" t="n">
-        <v>1520.640996459215</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W45" t="n">
-        <v>1266.403639731014</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X45" t="n">
-        <v>1058.552139525481</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.7918407605271</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="C46" t="n">
-        <v>491.8146769342835</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="D46" t="n">
-        <v>341.6980375219478</v>
+        <v>457.6519340239747</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>309.7388404415816</v>
       </c>
       <c r="F46" t="n">
-        <v>46.8949964416443</v>
+        <v>162.8488929436712</v>
       </c>
       <c r="G46" t="n">
-        <v>46.8949964416443</v>
+        <v>162.8488929436712</v>
       </c>
       <c r="H46" t="n">
-        <v>46.8949964416443</v>
+        <v>162.8488929436712</v>
       </c>
       <c r="I46" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J46" t="n">
-        <v>46.8949964416443</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702981</v>
       </c>
       <c r="L46" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="X46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8307,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108652</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853419</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998462</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696945</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082735</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853423</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720719</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>390.8949017221331</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970536</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599028</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082724</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006698</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613907</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22632,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22875,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E8" t="n">
-        <v>181.5942737834321</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6735173922533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>147.6737147680789</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.2758902402605</v>
       </c>
       <c r="U12" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.86144769835001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>112.131106959363</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -23513,7 +23515,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>110.5776005015849</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>141.1781473932213</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>42.92542614420725</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555773</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>284.6789273380076</v>
       </c>
       <c r="G17" t="n">
         <v>414.089049841944</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.851320470103616</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.83730805897855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>100.0463629140128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.86871047767411</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23944,7 +23946,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>143.5774396875595</v>
+        <v>228.1240506633005</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>130.2373021845463</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>203.4577711487111</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24145,10 +24147,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24184,13 +24186,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>197.9246686646403</v>
+        <v>209.1054558247366</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.70896332692172</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.0149344055511</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24263,7 +24265,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>143.6184697512195</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.3262300110368</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,10 +24384,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39861340794016</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>19.18073470419057</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>170.8936343942802</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>196.5458070472942</v>
       </c>
     </row>
     <row r="28">
@@ -24607,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24619,10 +24621,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
-        <v>98.60138091697766</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>22.87950324631737</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>356.4883722205852</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>56.94488906248665</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>11.90120006817365</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>14.27705323942865</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24844,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>55.08080495151798</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24895,13 +24897,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1054558247364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>96.46966033934844</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>73.64675691568516</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25005,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25047,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.5494517921143</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,10 +25095,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25132,7 +25134,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>10.39861340794016</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>142.0291450338311</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>25.71523754529767</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>23.83730805897748</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>190.0766035820376</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25332,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>58.694900250891</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,7 +25365,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.0366652245083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>346.9912921356866</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.8442918435686</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>76.57988169550521</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25570,7 +25572,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>209.1054558247366</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>102.3888605238397</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>288.0230926446557</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>86.71212518172602</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25685,13 +25687,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512208</v>
+        <v>143.618469751219</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>22.8795032463173</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>75.89366340357644</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>248.4646482748371</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>95.90522968142842</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006108</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25919,7 +25921,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>123.3319036531308</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25956,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>99.5069642353222</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>52.45246356162137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,10 +26043,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>24.28396809188492</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620179</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704629</v>
       </c>
       <c r="R46" t="n">
         <v>152.8143555761653</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643257.5959280829</v>
+        <v>643257.5959280828</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643257.5959280828</v>
+        <v>643257.5959280829</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643257.5959280829</v>
+        <v>643257.5959280827</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643257.5959280829</v>
+        <v>643257.5959280828</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643257.5959280826</v>
+        <v>643257.5959280828</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643257.5959280826</v>
+        <v>643257.5959280831</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844655</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="E2" t="n">
         <v>290813.7097406369</v>
       </c>
       <c r="F2" t="n">
-        <v>290813.7097406368</v>
+        <v>290813.7097406369</v>
       </c>
       <c r="G2" t="n">
         <v>290813.7097406369</v>
@@ -26332,28 +26334,28 @@
         <v>290813.7097406369</v>
       </c>
       <c r="I2" t="n">
+        <v>290813.7097406368</v>
+      </c>
+      <c r="J2" t="n">
+        <v>290813.709740637</v>
+      </c>
+      <c r="K2" t="n">
         <v>290813.7097406369</v>
       </c>
-      <c r="J2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="K2" t="n">
-        <v>290813.7097406368</v>
-      </c>
       <c r="L2" t="n">
-        <v>290813.7097406367</v>
+        <v>290813.709740637</v>
       </c>
       <c r="M2" t="n">
         <v>290813.709740637</v>
       </c>
       <c r="N2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="O2" t="n">
-        <v>290813.7097406367</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="P2" t="n">
-        <v>290813.7097406367</v>
+        <v>290813.7097406368</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26427,7 +26429,7 @@
         <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="G4" t="n">
         <v>9200.106879687155</v>
@@ -26445,7 +26447,7 @@
         <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
         <v>9200.106879687155</v>
@@ -26454,10 +26456,10 @@
         <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>9200.10687968715</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="P4" t="n">
-        <v>9200.10687968715</v>
+        <v>9200.106879687155</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>42221.72212544655</v>
       </c>
       <c r="H5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="I5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="J5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="K5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="L5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="M5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="N5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="O5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="P5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544657</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45178.92841981383</v>
+        <v>45178.92841981381</v>
       </c>
       <c r="C6" t="n">
         <v>125948.3599513615</v>
@@ -26531,31 +26533,31 @@
         <v>-106220.4620434495</v>
       </c>
       <c r="F6" t="n">
-        <v>239391.880735503</v>
+        <v>239391.8807355032</v>
       </c>
       <c r="G6" t="n">
         <v>239391.8807355032</v>
       </c>
       <c r="H6" t="n">
+        <v>239391.8807355031</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239391.8807355031</v>
+      </c>
+      <c r="J6" t="n">
+        <v>176331.938136397</v>
+      </c>
+      <c r="K6" t="n">
+        <v>239391.8807355031</v>
+      </c>
+      <c r="L6" t="n">
         <v>239391.8807355032</v>
-      </c>
-      <c r="I6" t="n">
-        <v>239391.8807355032</v>
-      </c>
-      <c r="J6" t="n">
-        <v>176331.9381363969</v>
-      </c>
-      <c r="K6" t="n">
-        <v>239391.880735503</v>
-      </c>
-      <c r="L6" t="n">
-        <v>239391.880735503</v>
       </c>
       <c r="M6" t="n">
         <v>153373.3469154273</v>
       </c>
       <c r="N6" t="n">
-        <v>239391.8807355032</v>
+        <v>239391.8807355031</v>
       </c>
       <c r="O6" t="n">
         <v>239391.880735503</v>
@@ -26753,22 +26755,22 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="N3" t="n">
         <v>301.9048087062787</v>
@@ -26777,7 +26779,7 @@
         <v>301.9048087062787</v>
       </c>
       <c r="P3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062788</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26822,16 @@
         <v>586.1874555205541</v>
       </c>
       <c r="M4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="N4" t="n">
         <v>586.1874555205541</v>
       </c>
       <c r="O4" t="n">
-        <v>586.1874555205537</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="P4" t="n">
-        <v>586.1874555205537</v>
+        <v>586.1874555205542</v>
       </c>
     </row>
   </sheetData>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32482,28 +32484,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O20" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K21" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L21" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R22" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32719,28 +32721,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N23" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O23" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L24" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I25" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R25" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32956,28 +32958,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N26" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O26" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L27" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N27" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P27" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T27" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I28" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R28" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33193,28 +33195,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N29" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O29" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K30" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N30" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P30" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T30" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I31" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R31" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T31" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33430,28 +33432,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N32" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O32" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K33" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L33" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N33" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P33" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T33" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I34" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R34" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T34" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33667,28 +33669,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N35" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O35" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K36" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L36" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N36" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P36" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T36" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I37" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R37" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33904,10 +33906,10 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N38" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O38" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P38" t="n">
         <v>174.5298045144674</v>
@@ -33916,16 +33918,16 @@
         <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S38" t="n">
         <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L39" t="n">
         <v>140.9980901415503</v>
@@ -33983,28 +33985,28 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O39" t="n">
         <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S39" t="n">
         <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I40" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R40" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T40" t="n">
         <v>2.326151804786081</v>
@@ -34126,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34141,10 +34143,10 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N41" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O41" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P41" t="n">
         <v>174.5298045144674</v>
@@ -34153,16 +34155,16 @@
         <v>131.0646147183122</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S41" t="n">
         <v>27.65690785284152</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K42" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L42" t="n">
         <v>140.9980901415503</v>
@@ -34220,28 +34222,28 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N42" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O42" t="n">
         <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S42" t="n">
         <v>12.06195155538764</v>
       </c>
       <c r="T42" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,40 +34283,40 @@
         <v>0.5444185075031255</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I43" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R43" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T43" t="n">
         <v>2.326151804786081</v>
@@ -34357,31 +34359,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.213687673191069</v>
+        <v>1.21368767319107</v>
       </c>
       <c r="H44" t="n">
         <v>12.42967888306804</v>
       </c>
       <c r="I44" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069876</v>
       </c>
       <c r="J44" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586787</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870999</v>
       </c>
       <c r="M44" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452116</v>
       </c>
       <c r="N44" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O44" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P44" t="n">
         <v>174.5298045144674</v>
@@ -34390,16 +34392,16 @@
         <v>131.0646147183122</v>
       </c>
       <c r="R44" t="n">
-        <v>76.23930830108857</v>
+        <v>76.2393083010886</v>
       </c>
       <c r="S44" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284153</v>
       </c>
       <c r="T44" t="n">
-        <v>5.312917789393908</v>
+        <v>5.31291778939391</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528554</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757695</v>
       </c>
       <c r="H45" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087038</v>
       </c>
       <c r="I45" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570084</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454673</v>
       </c>
       <c r="K45" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L45" t="n">
         <v>140.9980901415503</v>
@@ -34457,28 +34459,28 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N45" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O45" t="n">
         <v>154.5040580932972</v>
       </c>
       <c r="P45" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988245</v>
       </c>
       <c r="R45" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515174</v>
       </c>
       <c r="S45" t="n">
         <v>12.06195155538764</v>
       </c>
       <c r="T45" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051117</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031256</v>
       </c>
       <c r="H46" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618703</v>
       </c>
       <c r="I46" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J46" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K46" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354495</v>
       </c>
       <c r="L46" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823743</v>
       </c>
       <c r="M46" t="n">
-        <v>85.34007568069447</v>
+        <v>85.3400756806945</v>
       </c>
       <c r="N46" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545564</v>
       </c>
       <c r="O46" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598728</v>
       </c>
       <c r="P46" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292346</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.58762611464808</v>
+        <v>45.5876261146481</v>
       </c>
       <c r="R46" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S46" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031741</v>
       </c>
       <c r="T46" t="n">
-        <v>2.326151804786081</v>
+        <v>2.326151804786082</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471598</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35507,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725413</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36212,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L22" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N23" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36449,13 +36451,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L25" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N26" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P26" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674889</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36683,16 +36685,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L28" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M28" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N29" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P29" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>167.9114421664588</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36923,10 +36925,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P30" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L31" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M31" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N32" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P32" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503775</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,13 +37159,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q33" t="n">
         <v>152.98832074971</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L34" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M34" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N35" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P35" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L36" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37397,13 +37399,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L37" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M37" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37552,13 +37554,13 @@
         <v>432.2802359107712</v>
       </c>
       <c r="N38" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O38" t="n">
         <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q38" t="n">
         <v>121.0739155037674</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37637,7 +37639,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L40" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M40" t="n">
         <v>124.9239526425351</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788618</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37789,13 +37791,13 @@
         <v>432.2802359107712</v>
       </c>
       <c r="N41" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O41" t="n">
         <v>355.1946887874306</v>
       </c>
       <c r="P41" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q41" t="n">
         <v>121.0739155037674</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37871,10 +37873,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>402.8027153709858</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209684</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L43" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M43" t="n">
         <v>124.9239526425351</v>
@@ -37953,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788812</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848629</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107714</v>
       </c>
       <c r="N44" t="n">
-        <v>424.4951865620588</v>
+        <v>424.495186562059</v>
       </c>
       <c r="O44" t="n">
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306806</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037655</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828887</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503661</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729035</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>453.320607419918</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>40.98204022766207</v>
+        <v>40.9820402276621</v>
       </c>
       <c r="L46" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M46" t="n">
         <v>124.9239526425351</v>
@@ -38187,10 +38189,10 @@
         <v>127.4430518046842</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5362093200269</v>
+        <v>101.536209320027</v>
       </c>
       <c r="P46" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781695</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
